--- a/Trabalho Final/Tabelas/acao.xlsx
+++ b/Trabalho Final/Tabelas/acao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2010" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <textPr codePage="850" sourceFile="C:\ProgramData\MySQL\MySQL Server 5.7\Uploads\acao.csv" decimal="," thousands="." comma="1">
       <textFields count="3">
         <textField type="text"/>
-        <textField/>
+        <textField type="text"/>
         <textField/>
       </textFields>
     </textPr>
@@ -2747,19 +2747,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2782,16 +2776,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3070,7 +3091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D432"/>
+  <dimension ref="A1:C432"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3079,180 +3100,179 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="62.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>897</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>898</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>899</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -3263,7 +3283,7 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
@@ -3274,7 +3294,7 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
@@ -3285,7 +3305,7 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
@@ -3296,7 +3316,7 @@
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
@@ -3307,7 +3327,7 @@
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
@@ -3318,7 +3338,7 @@
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="s">
@@ -3329,7 +3349,7 @@
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="s">
@@ -3340,7 +3360,7 @@
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="s">
@@ -3351,7 +3371,7 @@
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="s">
@@ -3362,7 +3382,7 @@
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
@@ -3373,7 +3393,7 @@
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
@@ -3384,7 +3404,7 @@
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
@@ -3395,7 +3415,7 @@
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C29" t="s">
@@ -3406,7 +3426,7 @@
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
@@ -3417,7 +3437,7 @@
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C31" t="s">
@@ -3428,7 +3448,7 @@
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C32" t="s">
@@ -3439,7 +3459,7 @@
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C33" t="s">
@@ -3450,7 +3470,7 @@
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C34" t="s">
@@ -3461,7 +3481,7 @@
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
@@ -3472,7 +3492,7 @@
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
@@ -3483,7 +3503,7 @@
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C37" t="s">
@@ -3494,7 +3514,7 @@
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C38" t="s">
@@ -3505,7 +3525,7 @@
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C39" t="s">
@@ -3516,7 +3536,7 @@
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C40" t="s">
@@ -3527,7 +3547,7 @@
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C41" t="s">
@@ -3538,7 +3558,7 @@
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C42" t="s">
@@ -3549,7 +3569,7 @@
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C43" t="s">
@@ -3560,7 +3580,7 @@
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C44" t="s">
@@ -3571,7 +3591,7 @@
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C45" t="s">
@@ -3582,7 +3602,7 @@
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C46" t="s">
@@ -3593,7 +3613,7 @@
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C47" t="s">
@@ -3604,7 +3624,7 @@
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C48" t="s">
@@ -3615,7 +3635,7 @@
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C49" t="s">
@@ -3626,7 +3646,7 @@
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C50" t="s">
@@ -3637,7 +3657,7 @@
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C51" t="s">
@@ -3648,7 +3668,7 @@
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C52" t="s">
@@ -3659,7 +3679,7 @@
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C53" t="s">
@@ -3670,7 +3690,7 @@
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C54" t="s">
@@ -3681,7 +3701,7 @@
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C55" t="s">
@@ -3692,7 +3712,7 @@
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C56" t="s">
@@ -3703,7 +3723,7 @@
       <c r="A57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C57" t="s">
@@ -3714,7 +3734,7 @@
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C58" t="s">
@@ -3725,7 +3745,7 @@
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C59" t="s">
@@ -3736,7 +3756,7 @@
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C60" t="s">
@@ -3747,7 +3767,7 @@
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C61" t="s">
@@ -3758,7 +3778,7 @@
       <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C62" t="s">
@@ -3769,7 +3789,7 @@
       <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" t="s">
@@ -3780,7 +3800,7 @@
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C64" t="s">
@@ -3791,7 +3811,7 @@
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C65" t="s">
@@ -3802,7 +3822,7 @@
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C66" t="s">
@@ -3813,7 +3833,7 @@
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C67" t="s">
@@ -3824,7 +3844,7 @@
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C68" t="s">
@@ -3835,7 +3855,7 @@
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C69" t="s">
@@ -3846,7 +3866,7 @@
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C70" t="s">
@@ -3857,7 +3877,7 @@
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C71" t="s">
@@ -3868,7 +3888,7 @@
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C72" t="s">
@@ -3879,7 +3899,7 @@
       <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C73" t="s">
@@ -3890,7 +3910,7 @@
       <c r="A74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C74" t="s">
@@ -3901,7 +3921,7 @@
       <c r="A75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C75" t="s">
@@ -3912,7 +3932,7 @@
       <c r="A76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C76" t="s">
@@ -3923,7 +3943,7 @@
       <c r="A77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C77" t="s">
@@ -3934,7 +3954,7 @@
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C78" t="s">
@@ -3945,7 +3965,7 @@
       <c r="A79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C79" t="s">
@@ -3956,7 +3976,7 @@
       <c r="A80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C80" t="s">
@@ -3967,7 +3987,7 @@
       <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C81" t="s">
@@ -3978,7 +3998,7 @@
       <c r="A82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C82" t="s">
@@ -3989,7 +4009,7 @@
       <c r="A83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C83" t="s">
@@ -4000,7 +4020,7 @@
       <c r="A84" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -4011,7 +4031,7 @@
       <c r="A85" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C85" t="s">
@@ -4022,7 +4042,7 @@
       <c r="A86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C86" t="s">
@@ -4033,7 +4053,7 @@
       <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C87" t="s">
@@ -4044,7 +4064,7 @@
       <c r="A88" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C88" t="s">
@@ -4055,7 +4075,7 @@
       <c r="A89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C89" t="s">
@@ -4066,7 +4086,7 @@
       <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C90" t="s">
@@ -4077,7 +4097,7 @@
       <c r="A91" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C91" t="s">
@@ -4088,7 +4108,7 @@
       <c r="A92" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C92" t="s">
@@ -4099,7 +4119,7 @@
       <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C93" t="s">
@@ -4110,7 +4130,7 @@
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C94" t="s">
@@ -4121,7 +4141,7 @@
       <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C95" t="s">
@@ -4132,7 +4152,7 @@
       <c r="A96" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C96" t="s">
@@ -4143,7 +4163,7 @@
       <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C97" t="s">
@@ -4154,7 +4174,7 @@
       <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C98" t="s">
@@ -4165,7 +4185,7 @@
       <c r="A99" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C99" t="s">
@@ -4176,7 +4196,7 @@
       <c r="A100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C100" t="s">
@@ -4187,7 +4207,7 @@
       <c r="A101" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C101" t="s">
@@ -4198,7 +4218,7 @@
       <c r="A102" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C102" t="s">
@@ -4209,7 +4229,7 @@
       <c r="A103" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C103" t="s">
@@ -4220,7 +4240,7 @@
       <c r="A104" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C104" t="s">
@@ -4231,7 +4251,7 @@
       <c r="A105" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C105" t="s">
@@ -4242,7 +4262,7 @@
       <c r="A106" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C106" t="s">
@@ -4253,7 +4273,7 @@
       <c r="A107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C107" t="s">
@@ -4264,7 +4284,7 @@
       <c r="A108" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C108" t="s">
@@ -4275,7 +4295,7 @@
       <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C109" t="s">
@@ -4286,7 +4306,7 @@
       <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C110" t="s">
@@ -4297,7 +4317,7 @@
       <c r="A111" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C111" t="s">
@@ -4308,7 +4328,7 @@
       <c r="A112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C112" t="s">
@@ -4319,7 +4339,7 @@
       <c r="A113" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C113" t="s">
@@ -4330,7 +4350,7 @@
       <c r="A114" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C114" t="s">
@@ -4341,7 +4361,7 @@
       <c r="A115" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C115" t="s">
@@ -4352,7 +4372,7 @@
       <c r="A116" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C116" t="s">
@@ -4363,7 +4383,7 @@
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C117" t="s">
@@ -4374,7 +4394,7 @@
       <c r="A118" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C118" t="s">
@@ -4385,7 +4405,7 @@
       <c r="A119" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C119" t="s">
@@ -4396,7 +4416,7 @@
       <c r="A120" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C120" t="s">
@@ -4407,7 +4427,7 @@
       <c r="A121" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C121" t="s">
@@ -4418,7 +4438,7 @@
       <c r="A122" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C122" t="s">
@@ -4429,7 +4449,7 @@
       <c r="A123" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C123" t="s">
@@ -4440,7 +4460,7 @@
       <c r="A124" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C124" t="s">
@@ -4451,7 +4471,7 @@
       <c r="A125" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C125" t="s">
@@ -4462,7 +4482,7 @@
       <c r="A126" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C126" t="s">
@@ -4473,7 +4493,7 @@
       <c r="A127" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C127" t="s">
@@ -4484,7 +4504,7 @@
       <c r="A128" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C128" t="s">
@@ -4495,7 +4515,7 @@
       <c r="A129" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C129" t="s">
@@ -4506,7 +4526,7 @@
       <c r="A130" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C130" t="s">
@@ -4517,7 +4537,7 @@
       <c r="A131" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C131" t="s">
@@ -4528,7 +4548,7 @@
       <c r="A132" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C132" t="s">
@@ -4539,7 +4559,7 @@
       <c r="A133" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C133" t="s">
@@ -4550,7 +4570,7 @@
       <c r="A134" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C134" t="s">
@@ -4561,7 +4581,7 @@
       <c r="A135" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C135" t="s">
@@ -4572,7 +4592,7 @@
       <c r="A136" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C136" t="s">
@@ -4583,7 +4603,7 @@
       <c r="A137" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C137" t="s">
@@ -4594,7 +4614,7 @@
       <c r="A138" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C138" t="s">
@@ -4605,7 +4625,7 @@
       <c r="A139" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C139" t="s">
@@ -4616,7 +4636,7 @@
       <c r="A140" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C140" t="s">
@@ -4627,7 +4647,7 @@
       <c r="A141" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C141" t="s">
@@ -4638,7 +4658,7 @@
       <c r="A142" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C142" t="s">
@@ -4649,7 +4669,7 @@
       <c r="A143" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C143" t="s">
@@ -4660,7 +4680,7 @@
       <c r="A144" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C144" t="s">
@@ -4671,7 +4691,7 @@
       <c r="A145" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C145" t="s">
@@ -4682,7 +4702,7 @@
       <c r="A146" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C146" t="s">
@@ -4693,7 +4713,7 @@
       <c r="A147" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C147" t="s">
@@ -4704,7 +4724,7 @@
       <c r="A148" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C148" t="s">
@@ -4715,7 +4735,7 @@
       <c r="A149" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C149" t="s">
@@ -4726,7 +4746,7 @@
       <c r="A150" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C150" t="s">
@@ -4737,7 +4757,7 @@
       <c r="A151" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C151" t="s">
@@ -4748,7 +4768,7 @@
       <c r="A152" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C152" t="s">
@@ -4759,7 +4779,7 @@
       <c r="A153" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C153" t="s">
@@ -4770,7 +4790,7 @@
       <c r="A154" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C154" t="s">
@@ -4781,7 +4801,7 @@
       <c r="A155" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C155" t="s">
@@ -4792,7 +4812,7 @@
       <c r="A156" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C156" t="s">
@@ -4803,7 +4823,7 @@
       <c r="A157" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C157" t="s">
@@ -4814,7 +4834,7 @@
       <c r="A158" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C158" t="s">
@@ -4825,7 +4845,7 @@
       <c r="A159" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C159" t="s">
@@ -4836,7 +4856,7 @@
       <c r="A160" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C160" t="s">
@@ -4847,7 +4867,7 @@
       <c r="A161" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C161" t="s">
@@ -4858,7 +4878,7 @@
       <c r="A162" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C162" t="s">
@@ -4869,7 +4889,7 @@
       <c r="A163" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C163" t="s">
@@ -4880,7 +4900,7 @@
       <c r="A164" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C164" t="s">
@@ -4891,7 +4911,7 @@
       <c r="A165" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C165" t="s">
@@ -4902,7 +4922,7 @@
       <c r="A166" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C166" t="s">
@@ -4913,7 +4933,7 @@
       <c r="A167" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>340</v>
       </c>
       <c r="C167" t="s">
@@ -4924,7 +4944,7 @@
       <c r="A168" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C168" t="s">
@@ -4935,7 +4955,7 @@
       <c r="A169" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C169" t="s">
@@ -4946,7 +4966,7 @@
       <c r="A170" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C170" t="s">
@@ -4957,7 +4977,7 @@
       <c r="A171" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C171" t="s">
@@ -4968,7 +4988,7 @@
       <c r="A172" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C172" t="s">
@@ -4979,7 +4999,7 @@
       <c r="A173" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C173" t="s">
@@ -4990,7 +5010,7 @@
       <c r="A174" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C174" t="s">
@@ -5001,7 +5021,7 @@
       <c r="A175" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C175" t="s">
@@ -5012,7 +5032,7 @@
       <c r="A176" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C176" t="s">
@@ -5023,7 +5043,7 @@
       <c r="A177" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C177" t="s">
@@ -5034,7 +5054,7 @@
       <c r="A178" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C178" t="s">
@@ -5045,7 +5065,7 @@
       <c r="A179" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C179" t="s">
@@ -5056,7 +5076,7 @@
       <c r="A180" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C180" t="s">
@@ -5067,7 +5087,7 @@
       <c r="A181" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C181" t="s">
@@ -5078,7 +5098,7 @@
       <c r="A182" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>370</v>
       </c>
       <c r="C182" t="s">
@@ -5089,7 +5109,7 @@
       <c r="A183" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C183" t="s">
@@ -5100,7 +5120,7 @@
       <c r="A184" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C184" t="s">
@@ -5111,7 +5131,7 @@
       <c r="A185" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C185" t="s">
@@ -5122,7 +5142,7 @@
       <c r="A186" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>378</v>
       </c>
       <c r="C186" t="s">
@@ -5133,7 +5153,7 @@
       <c r="A187" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C187" t="s">
@@ -5144,7 +5164,7 @@
       <c r="A188" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C188" t="s">
@@ -5155,7 +5175,7 @@
       <c r="A189" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C189" t="s">
@@ -5166,7 +5186,7 @@
       <c r="A190" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C190" t="s">
@@ -5177,7 +5197,7 @@
       <c r="A191" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C191" t="s">
@@ -5188,7 +5208,7 @@
       <c r="A192" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C192" t="s">
@@ -5199,7 +5219,7 @@
       <c r="A193" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C193" t="s">
@@ -5210,7 +5230,7 @@
       <c r="A194" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C194" t="s">
@@ -5221,7 +5241,7 @@
       <c r="A195" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C195" t="s">
@@ -5232,7 +5252,7 @@
       <c r="A196" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C196" t="s">
@@ -5243,7 +5263,7 @@
       <c r="A197" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C197" t="s">
@@ -5254,7 +5274,7 @@
       <c r="A198" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C198" t="s">
@@ -5265,7 +5285,7 @@
       <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C199" t="s">
@@ -5276,7 +5296,7 @@
       <c r="A200" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>406</v>
       </c>
       <c r="C200" t="s">
@@ -5287,7 +5307,7 @@
       <c r="A201" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>408</v>
       </c>
       <c r="C201" t="s">
@@ -5298,7 +5318,7 @@
       <c r="A202" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C202" t="s">
@@ -5309,7 +5329,7 @@
       <c r="A203" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>412</v>
       </c>
       <c r="C203" t="s">
@@ -5320,7 +5340,7 @@
       <c r="A204" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C204" t="s">
@@ -5331,7 +5351,7 @@
       <c r="A205" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C205" t="s">
@@ -5342,7 +5362,7 @@
       <c r="A206" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C206" t="s">
@@ -5353,7 +5373,7 @@
       <c r="A207" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C207" t="s">
@@ -5364,7 +5384,7 @@
       <c r="A208" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C208" t="s">
@@ -5375,7 +5395,7 @@
       <c r="A209" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C209" t="s">
@@ -5386,7 +5406,7 @@
       <c r="A210" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>426</v>
       </c>
       <c r="C210" t="s">
@@ -5397,7 +5417,7 @@
       <c r="A211" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C211" t="s">
@@ -5408,7 +5428,7 @@
       <c r="A212" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="1" t="s">
         <v>430</v>
       </c>
       <c r="C212" t="s">
@@ -5419,7 +5439,7 @@
       <c r="A213" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>432</v>
       </c>
       <c r="C213" t="s">
@@ -5430,7 +5450,7 @@
       <c r="A214" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>434</v>
       </c>
       <c r="C214" t="s">
@@ -5441,7 +5461,7 @@
       <c r="A215" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>436</v>
       </c>
       <c r="C215" t="s">
@@ -5452,7 +5472,7 @@
       <c r="A216" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>438</v>
       </c>
       <c r="C216" t="s">
@@ -5463,7 +5483,7 @@
       <c r="A217" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C217" t="s">
@@ -5474,7 +5494,7 @@
       <c r="A218" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C218" t="s">
@@ -5485,7 +5505,7 @@
       <c r="A219" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="1" t="s">
         <v>444</v>
       </c>
       <c r="C219" t="s">
@@ -5496,7 +5516,7 @@
       <c r="A220" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="1" t="s">
         <v>446</v>
       </c>
       <c r="C220" t="s">
@@ -5507,7 +5527,7 @@
       <c r="A221" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C221" t="s">
@@ -5518,7 +5538,7 @@
       <c r="A222" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="1" t="s">
         <v>450</v>
       </c>
       <c r="C222" t="s">
@@ -5529,7 +5549,7 @@
       <c r="A223" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>452</v>
       </c>
       <c r="C223" t="s">
@@ -5540,7 +5560,7 @@
       <c r="A224" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C224" t="s">
@@ -5551,7 +5571,7 @@
       <c r="A225" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="1" t="s">
         <v>457</v>
       </c>
       <c r="C225" t="s">
@@ -5562,7 +5582,7 @@
       <c r="A226" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="1" t="s">
         <v>459</v>
       </c>
       <c r="C226" t="s">
@@ -5573,7 +5593,7 @@
       <c r="A227" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>461</v>
       </c>
       <c r="C227" t="s">
@@ -5584,7 +5604,7 @@
       <c r="A228" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C228" t="s">
@@ -5595,7 +5615,7 @@
       <c r="A229" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C229" t="s">
@@ -5606,7 +5626,7 @@
       <c r="A230" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C230" t="s">
@@ -5617,7 +5637,7 @@
       <c r="A231" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="1" t="s">
         <v>469</v>
       </c>
       <c r="C231" t="s">
@@ -5628,7 +5648,7 @@
       <c r="A232" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C232" t="s">
@@ -5639,7 +5659,7 @@
       <c r="A233" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C233" t="s">
@@ -5650,7 +5670,7 @@
       <c r="A234" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="1" t="s">
         <v>475</v>
       </c>
       <c r="C234" t="s">
@@ -5661,7 +5681,7 @@
       <c r="A235" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C235" t="s">
@@ -5672,7 +5692,7 @@
       <c r="A236" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C236" t="s">
@@ -5683,7 +5703,7 @@
       <c r="A237" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C237" t="s">
@@ -5694,7 +5714,7 @@
       <c r="A238" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="1" t="s">
         <v>483</v>
       </c>
       <c r="C238" t="s">
@@ -5705,7 +5725,7 @@
       <c r="A239" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="1" t="s">
         <v>485</v>
       </c>
       <c r="C239" t="s">
@@ -5716,7 +5736,7 @@
       <c r="A240" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="1" t="s">
         <v>487</v>
       </c>
       <c r="C240" t="s">
@@ -5727,7 +5747,7 @@
       <c r="A241" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C241" t="s">
@@ -5738,7 +5758,7 @@
       <c r="A242" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C242" t="s">
@@ -5749,7 +5769,7 @@
       <c r="A243" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C243" t="s">
@@ -5760,7 +5780,7 @@
       <c r="A244" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="1" t="s">
         <v>495</v>
       </c>
       <c r="C244" t="s">
@@ -5771,7 +5791,7 @@
       <c r="A245" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="1" t="s">
         <v>497</v>
       </c>
       <c r="C245" t="s">
@@ -5782,7 +5802,7 @@
       <c r="A246" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="1" t="s">
         <v>499</v>
       </c>
       <c r="C246" t="s">
@@ -5793,7 +5813,7 @@
       <c r="A247" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C247" t="s">
@@ -5804,7 +5824,7 @@
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C248" t="s">
@@ -5815,7 +5835,7 @@
       <c r="A249" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C249" t="s">
@@ -5826,7 +5846,7 @@
       <c r="A250" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="1" t="s">
         <v>508</v>
       </c>
       <c r="C250" t="s">
@@ -5837,7 +5857,7 @@
       <c r="A251" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="1" t="s">
         <v>510</v>
       </c>
       <c r="C251" t="s">
@@ -5848,7 +5868,7 @@
       <c r="A252" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="1" t="s">
         <v>512</v>
       </c>
       <c r="C252" t="s">
@@ -5859,7 +5879,7 @@
       <c r="A253" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C253" t="s">
@@ -5870,7 +5890,7 @@
       <c r="A254" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="1" t="s">
         <v>516</v>
       </c>
       <c r="C254" t="s">
@@ -5881,7 +5901,7 @@
       <c r="A255" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C255" t="s">
@@ -5892,7 +5912,7 @@
       <c r="A256" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="1" t="s">
         <v>520</v>
       </c>
       <c r="C256" t="s">
@@ -5903,7 +5923,7 @@
       <c r="A257" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="1" t="s">
         <v>522</v>
       </c>
       <c r="C257" t="s">
@@ -5914,7 +5934,7 @@
       <c r="A258" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C258" t="s">
@@ -5925,7 +5945,7 @@
       <c r="A259" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C259" t="s">
@@ -5936,7 +5956,7 @@
       <c r="A260" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="1" t="s">
         <v>528</v>
       </c>
       <c r="C260" t="s">
@@ -5947,7 +5967,7 @@
       <c r="A261" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C261" t="s">
@@ -5958,7 +5978,7 @@
       <c r="A262" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="1" t="s">
         <v>532</v>
       </c>
       <c r="C262" t="s">
@@ -5969,7 +5989,7 @@
       <c r="A263" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="1" t="s">
         <v>534</v>
       </c>
       <c r="C263" t="s">
@@ -5980,7 +6000,7 @@
       <c r="A264" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C264" t="s">
@@ -5991,7 +6011,7 @@
       <c r="A265" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="1" t="s">
         <v>538</v>
       </c>
       <c r="C265" t="s">
@@ -6002,7 +6022,7 @@
       <c r="A266" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="1" t="s">
         <v>540</v>
       </c>
       <c r="C266" t="s">
@@ -6013,7 +6033,7 @@
       <c r="A267" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="1" t="s">
         <v>542</v>
       </c>
       <c r="C267" t="s">
@@ -6024,7 +6044,7 @@
       <c r="A268" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="1" t="s">
         <v>544</v>
       </c>
       <c r="C268" t="s">
@@ -6035,7 +6055,7 @@
       <c r="A269" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="1" t="s">
         <v>546</v>
       </c>
       <c r="C269" t="s">
@@ -6046,7 +6066,7 @@
       <c r="A270" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="1" t="s">
         <v>548</v>
       </c>
       <c r="C270" t="s">
@@ -6057,7 +6077,7 @@
       <c r="A271" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="1" t="s">
         <v>550</v>
       </c>
       <c r="C271" t="s">
@@ -6068,7 +6088,7 @@
       <c r="A272" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="1" t="s">
         <v>552</v>
       </c>
       <c r="C272" t="s">
@@ -6079,7 +6099,7 @@
       <c r="A273" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="1" t="s">
         <v>554</v>
       </c>
       <c r="C273" t="s">
@@ -6090,7 +6110,7 @@
       <c r="A274" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C274" t="s">
@@ -6101,7 +6121,7 @@
       <c r="A275" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C275" t="s">
@@ -6112,7 +6132,7 @@
       <c r="A276" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="1" t="s">
         <v>560</v>
       </c>
       <c r="C276" t="s">
@@ -6123,7 +6143,7 @@
       <c r="A277" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="1" t="s">
         <v>562</v>
       </c>
       <c r="C277" t="s">
@@ -6134,7 +6154,7 @@
       <c r="A278" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="1" t="s">
         <v>564</v>
       </c>
       <c r="C278" t="s">
@@ -6145,7 +6165,7 @@
       <c r="A279" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="1" t="s">
         <v>566</v>
       </c>
       <c r="C279" t="s">
@@ -6156,7 +6176,7 @@
       <c r="A280" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="1" t="s">
         <v>568</v>
       </c>
       <c r="C280" t="s">
@@ -6167,7 +6187,7 @@
       <c r="A281" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="1" t="s">
         <v>570</v>
       </c>
       <c r="C281" t="s">
@@ -6178,7 +6198,7 @@
       <c r="A282" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
         <v>572</v>
       </c>
       <c r="C282" t="s">
@@ -6189,7 +6209,7 @@
       <c r="A283" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C283" t="s">
@@ -6200,7 +6220,7 @@
       <c r="A284" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="1" t="s">
         <v>576</v>
       </c>
       <c r="C284" t="s">
@@ -6211,7 +6231,7 @@
       <c r="A285" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="1" t="s">
         <v>578</v>
       </c>
       <c r="C285" t="s">
@@ -6222,7 +6242,7 @@
       <c r="A286" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="1" t="s">
         <v>580</v>
       </c>
       <c r="C286" t="s">
@@ -6233,7 +6253,7 @@
       <c r="A287" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="1" t="s">
         <v>582</v>
       </c>
       <c r="C287" t="s">
@@ -6244,7 +6264,7 @@
       <c r="A288" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="1" t="s">
         <v>584</v>
       </c>
       <c r="C288" t="s">
@@ -6255,7 +6275,7 @@
       <c r="A289" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C289" t="s">
@@ -6266,7 +6286,7 @@
       <c r="A290" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C290" t="s">
@@ -6277,7 +6297,7 @@
       <c r="A291" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="1" t="s">
         <v>591</v>
       </c>
       <c r="C291" t="s">
@@ -6288,7 +6308,7 @@
       <c r="A292" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C292" t="s">
@@ -6299,7 +6319,7 @@
       <c r="A293" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C293" t="s">
@@ -6310,7 +6330,7 @@
       <c r="A294" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C294" t="s">
@@ -6321,7 +6341,7 @@
       <c r="A295" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="1" t="s">
         <v>599</v>
       </c>
       <c r="C295" t="s">
@@ -6332,7 +6352,7 @@
       <c r="A296" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C296" t="s">
@@ -6343,7 +6363,7 @@
       <c r="A297" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="1" t="s">
         <v>603</v>
       </c>
       <c r="C297" t="s">
@@ -6354,7 +6374,7 @@
       <c r="A298" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C298" t="s">
@@ -6365,7 +6385,7 @@
       <c r="A299" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C299" t="s">
@@ -6376,7 +6396,7 @@
       <c r="A300" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="1" t="s">
         <v>610</v>
       </c>
       <c r="C300" t="s">
@@ -6387,7 +6407,7 @@
       <c r="A301" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="1" t="s">
         <v>613</v>
       </c>
       <c r="C301" t="s">
@@ -6398,7 +6418,7 @@
       <c r="A302" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C302" t="s">
@@ -6409,7 +6429,7 @@
       <c r="A303" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="1" t="s">
         <v>617</v>
       </c>
       <c r="C303" t="s">
@@ -6420,7 +6440,7 @@
       <c r="A304" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="1" t="s">
         <v>620</v>
       </c>
       <c r="C304" t="s">
@@ -6431,7 +6451,7 @@
       <c r="A305" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="1" t="s">
         <v>622</v>
       </c>
       <c r="C305" t="s">
@@ -6442,7 +6462,7 @@
       <c r="A306" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="1" t="s">
         <v>624</v>
       </c>
       <c r="C306" t="s">
@@ -6453,7 +6473,7 @@
       <c r="A307" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="1" t="s">
         <v>626</v>
       </c>
       <c r="C307" t="s">
@@ -6464,7 +6484,7 @@
       <c r="A308" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="1" t="s">
         <v>628</v>
       </c>
       <c r="C308" t="s">
@@ -6475,7 +6495,7 @@
       <c r="A309" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="1" t="s">
         <v>630</v>
       </c>
       <c r="C309" t="s">
@@ -6486,7 +6506,7 @@
       <c r="A310" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="1" t="s">
         <v>632</v>
       </c>
       <c r="C310" t="s">
@@ -6497,7 +6517,7 @@
       <c r="A311" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="1" t="s">
         <v>634</v>
       </c>
       <c r="C311" t="s">
@@ -6508,7 +6528,7 @@
       <c r="A312" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="1" t="s">
         <v>636</v>
       </c>
       <c r="C312" t="s">
@@ -6519,7 +6539,7 @@
       <c r="A313" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="1" t="s">
         <v>638</v>
       </c>
       <c r="C313" t="s">
@@ -6530,7 +6550,7 @@
       <c r="A314" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="1" t="s">
         <v>640</v>
       </c>
       <c r="C314" t="s">
@@ -6541,7 +6561,7 @@
       <c r="A315" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="1" t="s">
         <v>642</v>
       </c>
       <c r="C315" t="s">
@@ -6552,7 +6572,7 @@
       <c r="A316" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="1" t="s">
         <v>644</v>
       </c>
       <c r="C316" t="s">
@@ -6563,7 +6583,7 @@
       <c r="A317" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="1" t="s">
         <v>646</v>
       </c>
       <c r="C317" t="s">
@@ -6574,7 +6594,7 @@
       <c r="A318" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C318" t="s">
@@ -6585,7 +6605,7 @@
       <c r="A319" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="1" t="s">
         <v>650</v>
       </c>
       <c r="C319" t="s">
@@ -6596,7 +6616,7 @@
       <c r="A320" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="1" t="s">
         <v>652</v>
       </c>
       <c r="C320" t="s">
@@ -6607,7 +6627,7 @@
       <c r="A321" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="1" t="s">
         <v>655</v>
       </c>
       <c r="C321" t="s">
@@ -6618,7 +6638,7 @@
       <c r="A322" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="1" t="s">
         <v>657</v>
       </c>
       <c r="C322" t="s">
@@ -6629,7 +6649,7 @@
       <c r="A323" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="1" t="s">
         <v>659</v>
       </c>
       <c r="C323" t="s">
@@ -6640,7 +6660,7 @@
       <c r="A324" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="1" t="s">
         <v>661</v>
       </c>
       <c r="C324" t="s">
@@ -6651,7 +6671,7 @@
       <c r="A325" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="1" t="s">
         <v>663</v>
       </c>
       <c r="C325" t="s">
@@ -6662,7 +6682,7 @@
       <c r="A326" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C326" t="s">
@@ -6673,7 +6693,7 @@
       <c r="A327" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="1" t="s">
         <v>667</v>
       </c>
       <c r="C327" t="s">
@@ -6684,7 +6704,7 @@
       <c r="A328" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="1" t="s">
         <v>669</v>
       </c>
       <c r="C328" t="s">
@@ -6695,7 +6715,7 @@
       <c r="A329" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="1" t="s">
         <v>671</v>
       </c>
       <c r="C329" t="s">
@@ -6706,7 +6726,7 @@
       <c r="A330" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C330" t="s">
@@ -6717,7 +6737,7 @@
       <c r="A331" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C331" t="s">
@@ -6728,7 +6748,7 @@
       <c r="A332" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="1" t="s">
         <v>678</v>
       </c>
       <c r="C332" t="s">
@@ -6739,7 +6759,7 @@
       <c r="A333" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="1" t="s">
         <v>680</v>
       </c>
       <c r="C333" t="s">
@@ -6750,7 +6770,7 @@
       <c r="A334" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="1" t="s">
         <v>682</v>
       </c>
       <c r="C334" t="s">
@@ -6761,7 +6781,7 @@
       <c r="A335" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="1" t="s">
         <v>684</v>
       </c>
       <c r="C335" t="s">
@@ -6772,7 +6792,7 @@
       <c r="A336" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="1" t="s">
         <v>686</v>
       </c>
       <c r="C336" t="s">
@@ -6783,7 +6803,7 @@
       <c r="A337" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="1" t="s">
         <v>688</v>
       </c>
       <c r="C337" t="s">
@@ -6794,7 +6814,7 @@
       <c r="A338" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="1" t="s">
         <v>691</v>
       </c>
       <c r="C338" t="s">
@@ -6805,7 +6825,7 @@
       <c r="A339" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="1" t="s">
         <v>693</v>
       </c>
       <c r="C339" t="s">
@@ -6816,7 +6836,7 @@
       <c r="A340" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="1" t="s">
         <v>695</v>
       </c>
       <c r="C340" t="s">
@@ -6827,7 +6847,7 @@
       <c r="A341" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="1" t="s">
         <v>697</v>
       </c>
       <c r="C341" t="s">
@@ -6838,7 +6858,7 @@
       <c r="A342" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C342" t="s">
@@ -6849,7 +6869,7 @@
       <c r="A343" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C343" t="s">
@@ -6860,7 +6880,7 @@
       <c r="A344" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="1" t="s">
         <v>704</v>
       </c>
       <c r="C344" t="s">
@@ -6871,7 +6891,7 @@
       <c r="A345" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="1" t="s">
         <v>706</v>
       </c>
       <c r="C345" t="s">
@@ -6882,7 +6902,7 @@
       <c r="A346" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C346" t="s">
@@ -6893,7 +6913,7 @@
       <c r="A347" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="1" t="s">
         <v>710</v>
       </c>
       <c r="C347" t="s">
@@ -6904,7 +6924,7 @@
       <c r="A348" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="1" t="s">
         <v>712</v>
       </c>
       <c r="C348" t="s">
@@ -6915,7 +6935,7 @@
       <c r="A349" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="1" t="s">
         <v>714</v>
       </c>
       <c r="C349" t="s">
@@ -6926,7 +6946,7 @@
       <c r="A350" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="1" t="s">
         <v>716</v>
       </c>
       <c r="C350" t="s">
@@ -6937,7 +6957,7 @@
       <c r="A351" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="1" t="s">
         <v>718</v>
       </c>
       <c r="C351" t="s">
@@ -6948,7 +6968,7 @@
       <c r="A352" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="1" t="s">
         <v>720</v>
       </c>
       <c r="C352" t="s">
@@ -6959,7 +6979,7 @@
       <c r="A353" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="1" t="s">
         <v>722</v>
       </c>
       <c r="C353" t="s">
@@ -6970,7 +6990,7 @@
       <c r="A354" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C354" t="s">
@@ -6981,7 +7001,7 @@
       <c r="A355" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="1" t="s">
         <v>726</v>
       </c>
       <c r="C355" t="s">
@@ -6992,7 +7012,7 @@
       <c r="A356" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="1" t="s">
         <v>728</v>
       </c>
       <c r="C356" t="s">
@@ -7003,7 +7023,7 @@
       <c r="A357" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="1" t="s">
         <v>730</v>
       </c>
       <c r="C357" t="s">
@@ -7014,7 +7034,7 @@
       <c r="A358" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="1" t="s">
         <v>732</v>
       </c>
       <c r="C358" t="s">
@@ -7025,7 +7045,7 @@
       <c r="A359" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="1" t="s">
         <v>734</v>
       </c>
       <c r="C359" t="s">
@@ -7036,7 +7056,7 @@
       <c r="A360" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="1" t="s">
         <v>736</v>
       </c>
       <c r="C360" t="s">
@@ -7047,7 +7067,7 @@
       <c r="A361" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="1" t="s">
         <v>738</v>
       </c>
       <c r="C361" t="s">
@@ -7058,7 +7078,7 @@
       <c r="A362" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="1" t="s">
         <v>740</v>
       </c>
       <c r="C362" t="s">
@@ -7069,7 +7089,7 @@
       <c r="A363" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="1" t="s">
         <v>742</v>
       </c>
       <c r="C363" t="s">
@@ -7080,7 +7100,7 @@
       <c r="A364" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="1" t="s">
         <v>744</v>
       </c>
       <c r="C364" t="s">
@@ -7091,7 +7111,7 @@
       <c r="A365" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="1" t="s">
         <v>746</v>
       </c>
       <c r="C365" t="s">
@@ -7102,7 +7122,7 @@
       <c r="A366" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="1" t="s">
         <v>748</v>
       </c>
       <c r="C366" t="s">
@@ -7113,7 +7133,7 @@
       <c r="A367" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="1" t="s">
         <v>750</v>
       </c>
       <c r="C367" t="s">
@@ -7124,7 +7144,7 @@
       <c r="A368" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="1" t="s">
         <v>752</v>
       </c>
       <c r="C368" t="s">
@@ -7135,7 +7155,7 @@
       <c r="A369" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="1" t="s">
         <v>754</v>
       </c>
       <c r="C369" t="s">
@@ -7146,7 +7166,7 @@
       <c r="A370" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C370" t="s">
@@ -7157,7 +7177,7 @@
       <c r="A371" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="1" t="s">
         <v>758</v>
       </c>
       <c r="C371" t="s">
@@ -7168,7 +7188,7 @@
       <c r="A372" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="1" t="s">
         <v>760</v>
       </c>
       <c r="C372" t="s">
@@ -7179,7 +7199,7 @@
       <c r="A373" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="1" t="s">
         <v>762</v>
       </c>
       <c r="C373" t="s">
@@ -7190,7 +7210,7 @@
       <c r="A374" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="1" t="s">
         <v>765</v>
       </c>
       <c r="C374" t="s">
@@ -7201,7 +7221,7 @@
       <c r="A375" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="1" t="s">
         <v>768</v>
       </c>
       <c r="C375" t="s">
@@ -7212,7 +7232,7 @@
       <c r="A376" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="1" t="s">
         <v>770</v>
       </c>
       <c r="C376" t="s">
@@ -7223,7 +7243,7 @@
       <c r="A377" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="1" t="s">
         <v>772</v>
       </c>
       <c r="C377" t="s">
@@ -7234,7 +7254,7 @@
       <c r="A378" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="1" t="s">
         <v>774</v>
       </c>
       <c r="C378" t="s">
@@ -7245,7 +7265,7 @@
       <c r="A379" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="1" t="s">
         <v>776</v>
       </c>
       <c r="C379" t="s">
@@ -7256,7 +7276,7 @@
       <c r="A380" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="1" t="s">
         <v>778</v>
       </c>
       <c r="C380" t="s">
@@ -7267,7 +7287,7 @@
       <c r="A381" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="1" t="s">
         <v>780</v>
       </c>
       <c r="C381" t="s">
@@ -7278,7 +7298,7 @@
       <c r="A382" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="1" t="s">
         <v>782</v>
       </c>
       <c r="C382" t="s">
@@ -7289,7 +7309,7 @@
       <c r="A383" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="1" t="s">
         <v>784</v>
       </c>
       <c r="C383" t="s">
@@ -7300,7 +7320,7 @@
       <c r="A384" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="1" t="s">
         <v>786</v>
       </c>
       <c r="C384" t="s">
@@ -7311,7 +7331,7 @@
       <c r="A385" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="1" t="s">
         <v>788</v>
       </c>
       <c r="C385" t="s">
@@ -7322,7 +7342,7 @@
       <c r="A386" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="1" t="s">
         <v>790</v>
       </c>
       <c r="C386" t="s">
@@ -7333,7 +7353,7 @@
       <c r="A387" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="1" t="s">
         <v>792</v>
       </c>
       <c r="C387" t="s">
@@ -7344,7 +7364,7 @@
       <c r="A388" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="1" t="s">
         <v>794</v>
       </c>
       <c r="C388" t="s">
@@ -7355,7 +7375,7 @@
       <c r="A389" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="1" t="s">
         <v>796</v>
       </c>
       <c r="C389" t="s">
@@ -7366,7 +7386,7 @@
       <c r="A390" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="1" t="s">
         <v>798</v>
       </c>
       <c r="C390" t="s">
@@ -7377,7 +7397,7 @@
       <c r="A391" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="1" t="s">
         <v>800</v>
       </c>
       <c r="C391" t="s">
@@ -7388,7 +7408,7 @@
       <c r="A392" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="1" t="s">
         <v>802</v>
       </c>
       <c r="C392" t="s">
@@ -7399,7 +7419,7 @@
       <c r="A393" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="1" t="s">
         <v>804</v>
       </c>
       <c r="C393" t="s">
@@ -7410,7 +7430,7 @@
       <c r="A394" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="1" t="s">
         <v>806</v>
       </c>
       <c r="C394" t="s">
@@ -7421,7 +7441,7 @@
       <c r="A395" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="1" t="s">
         <v>808</v>
       </c>
       <c r="C395" t="s">
@@ -7432,7 +7452,7 @@
       <c r="A396" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C396" t="s">
@@ -7443,7 +7463,7 @@
       <c r="A397" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="1" t="s">
         <v>813</v>
       </c>
       <c r="C397" t="s">
@@ -7454,7 +7474,7 @@
       <c r="A398" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="1" t="s">
         <v>815</v>
       </c>
       <c r="C398" t="s">
@@ -7465,7 +7485,7 @@
       <c r="A399" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C399" t="s">
@@ -7476,7 +7496,7 @@
       <c r="A400" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C400" t="s">
@@ -7487,7 +7507,7 @@
       <c r="A401" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C401" t="s">
@@ -7498,7 +7518,7 @@
       <c r="A402" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="1" t="s">
         <v>823</v>
       </c>
       <c r="C402" t="s">
@@ -7509,7 +7529,7 @@
       <c r="A403" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="1" t="s">
         <v>826</v>
       </c>
       <c r="C403" t="s">
@@ -7520,7 +7540,7 @@
       <c r="A404" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="1" t="s">
         <v>828</v>
       </c>
       <c r="C404" t="s">
@@ -7531,7 +7551,7 @@
       <c r="A405" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="1" t="s">
         <v>830</v>
       </c>
       <c r="C405" t="s">
@@ -7542,7 +7562,7 @@
       <c r="A406" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="1" t="s">
         <v>832</v>
       </c>
       <c r="C406" t="s">
@@ -7553,7 +7573,7 @@
       <c r="A407" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="1" t="s">
         <v>834</v>
       </c>
       <c r="C407" t="s">
@@ -7564,7 +7584,7 @@
       <c r="A408" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="1" t="s">
         <v>837</v>
       </c>
       <c r="C408" t="s">
@@ -7575,7 +7595,7 @@
       <c r="A409" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="1" t="s">
         <v>839</v>
       </c>
       <c r="C409" t="s">
@@ -7586,7 +7606,7 @@
       <c r="A410" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C410" t="s">
@@ -7597,7 +7617,7 @@
       <c r="A411" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="1" t="s">
         <v>844</v>
       </c>
       <c r="C411" t="s">
@@ -7608,7 +7628,7 @@
       <c r="A412" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="1" t="s">
         <v>847</v>
       </c>
       <c r="C412" t="s">
@@ -7619,7 +7639,7 @@
       <c r="A413" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="1" t="s">
         <v>850</v>
       </c>
       <c r="C413" t="s">
@@ -7630,7 +7650,7 @@
       <c r="A414" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="1" t="s">
         <v>852</v>
       </c>
       <c r="C414" t="s">
@@ -7641,7 +7661,7 @@
       <c r="A415" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C415" t="s">
@@ -7652,7 +7672,7 @@
       <c r="A416" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="1" t="s">
         <v>857</v>
       </c>
       <c r="C416" t="s">
@@ -7663,7 +7683,7 @@
       <c r="A417" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C417" t="s">
@@ -7674,7 +7694,7 @@
       <c r="A418" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="1" t="s">
         <v>861</v>
       </c>
       <c r="C418" t="s">
@@ -7685,7 +7705,7 @@
       <c r="A419" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C419" t="s">
@@ -7696,7 +7716,7 @@
       <c r="A420" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="1" t="s">
         <v>866</v>
       </c>
       <c r="C420" t="s">
@@ -7707,7 +7727,7 @@
       <c r="A421" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="1" t="s">
         <v>869</v>
       </c>
       <c r="C421" t="s">
@@ -7718,7 +7738,7 @@
       <c r="A422" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="1" t="s">
         <v>872</v>
       </c>
       <c r="C422" t="s">
@@ -7729,7 +7749,7 @@
       <c r="A423" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="1" t="s">
         <v>875</v>
       </c>
       <c r="C423" t="s">
@@ -7740,7 +7760,7 @@
       <c r="A424" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="1" t="s">
         <v>878</v>
       </c>
       <c r="C424" t="s">
@@ -7751,7 +7771,7 @@
       <c r="A425" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="1" t="s">
         <v>881</v>
       </c>
       <c r="C425" t="s">
@@ -7762,7 +7782,7 @@
       <c r="A426" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C426" t="s">
@@ -7773,7 +7793,7 @@
       <c r="A427" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="1" t="s">
         <v>885</v>
       </c>
       <c r="C427" t="s">
@@ -7784,7 +7804,7 @@
       <c r="A428" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C428" t="s">
@@ -7795,7 +7815,7 @@
       <c r="A429" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="1" t="s">
         <v>889</v>
       </c>
       <c r="C429" t="s">
@@ -7806,7 +7826,7 @@
       <c r="A430" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="1" t="s">
         <v>891</v>
       </c>
       <c r="C430" t="s">
@@ -7817,7 +7837,7 @@
       <c r="A431" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="1" t="s">
         <v>894</v>
       </c>
       <c r="C431" t="s">
@@ -7828,7 +7848,7 @@
       <c r="A432" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="1" t="s">
         <v>896</v>
       </c>
       <c r="C432" t="s">
